--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H2">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I2">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J2">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N2">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O2">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P2">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q2">
-        <v>20.40402093554944</v>
+        <v>5.879360979344</v>
       </c>
       <c r="R2">
-        <v>183.636188419945</v>
+        <v>52.914248814096</v>
       </c>
       <c r="S2">
-        <v>0.05201647870875997</v>
+        <v>0.01384448463573131</v>
       </c>
       <c r="T2">
-        <v>0.05201647870875997</v>
+        <v>0.01384448463573131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H3">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I3">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J3">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N3">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P3">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q3">
-        <v>114.7291252155928</v>
+        <v>74.25689541375955</v>
       </c>
       <c r="R3">
-        <v>1032.562126940335</v>
+        <v>668.3120587238359</v>
       </c>
       <c r="S3">
-        <v>0.292481816103902</v>
+        <v>0.1748571743195818</v>
       </c>
       <c r="T3">
-        <v>0.292481816103902</v>
+        <v>0.1748571743195818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H4">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I4">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J4">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N4">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P4">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q4">
-        <v>146.7423138372728</v>
+        <v>184.4161223965565</v>
       </c>
       <c r="R4">
-        <v>1320.680824535455</v>
+        <v>1659.745101569008</v>
       </c>
       <c r="S4">
-        <v>0.3740938351073658</v>
+        <v>0.4342557264420838</v>
       </c>
       <c r="T4">
-        <v>0.3740938351073658</v>
+        <v>0.4342557264420838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.088327</v>
       </c>
       <c r="I5">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J5">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N5">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O5">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P5">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q5">
-        <v>7.049261869350999</v>
+        <v>3.138303229307999</v>
       </c>
       <c r="R5">
-        <v>63.443356824159</v>
+        <v>28.244729063772</v>
       </c>
       <c r="S5">
-        <v>0.01797085883698128</v>
+        <v>0.007389951219710335</v>
       </c>
       <c r="T5">
-        <v>0.01797085883698128</v>
+        <v>0.007389951219710336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.088327</v>
       </c>
       <c r="I6">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J6">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N6">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P6">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q6">
-        <v>39.637072037953</v>
+        <v>39.63707203795299</v>
       </c>
       <c r="R6">
-        <v>356.7336483415771</v>
+        <v>356.733648341577</v>
       </c>
       <c r="S6">
-        <v>0.1010477748602765</v>
+        <v>0.09333579563540313</v>
       </c>
       <c r="T6">
-        <v>0.1010477748602765</v>
+        <v>0.09333579563540315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.088327</v>
       </c>
       <c r="I7">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J7">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N7">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P7">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q7">
-        <v>50.697115084369</v>
+        <v>98.438200084484</v>
       </c>
       <c r="R7">
-        <v>456.274035759321</v>
+        <v>885.943800760356</v>
       </c>
       <c r="S7">
-        <v>0.1292434180356629</v>
+        <v>0.2317983456751014</v>
       </c>
       <c r="T7">
-        <v>0.1292434180356629</v>
+        <v>0.2317983456751014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H8">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I8">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J8">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.614605666666666</v>
+        <v>1.164012</v>
       </c>
       <c r="N8">
-        <v>7.843817</v>
+        <v>3.492036</v>
       </c>
       <c r="O8">
-        <v>0.07238665237615236</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="P8">
-        <v>0.07238665237615237</v>
+        <v>0.02222380689314669</v>
       </c>
       <c r="Q8">
-        <v>0.9411569419142222</v>
+        <v>0.4201578914799999</v>
       </c>
       <c r="R8">
-        <v>8.470412477228001</v>
+        <v>3.78142102332</v>
       </c>
       <c r="S8">
-        <v>0.002399314830411121</v>
+        <v>0.0009893710377050446</v>
       </c>
       <c r="T8">
-        <v>0.002399314830411121</v>
+        <v>0.0009893710377050448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H9">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I9">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J9">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.70158366666667</v>
+        <v>14.70158366666666</v>
       </c>
       <c r="N9">
-        <v>44.10475100000001</v>
+        <v>44.10475099999999</v>
       </c>
       <c r="O9">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="P9">
-        <v>0.4070206225838465</v>
+        <v>0.2806888214480945</v>
       </c>
       <c r="Q9">
-        <v>5.292001658764891</v>
+        <v>5.30663463504111</v>
       </c>
       <c r="R9">
-        <v>47.62801492888401</v>
+        <v>47.75971171537</v>
       </c>
       <c r="S9">
-        <v>0.01349103161966805</v>
+        <v>0.01249585149310964</v>
       </c>
       <c r="T9">
-        <v>0.01349103161966805</v>
+        <v>0.01249585149310964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H10">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I10">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J10">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.80380766666667</v>
+        <v>36.51120933333333</v>
       </c>
       <c r="N10">
-        <v>56.411423</v>
+        <v>109.533628</v>
       </c>
       <c r="O10">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="P10">
-        <v>0.5205927250400011</v>
+        <v>0.6970873716587588</v>
       </c>
       <c r="Q10">
-        <v>6.76864367943689</v>
+        <v>13.17896441692889</v>
       </c>
       <c r="R10">
-        <v>60.917793114932</v>
+        <v>118.61067975236</v>
       </c>
       <c r="S10">
-        <v>0.01725547189697249</v>
+        <v>0.03103329954157355</v>
       </c>
       <c r="T10">
-        <v>0.01725547189697248</v>
+        <v>0.03103329954157356</v>
       </c>
     </row>
   </sheetData>
